--- a/DataDict/Aggregate/Template_basin_aggregate_data_dictionary_WaDE_Oct2020.xlsx
+++ b/DataDict/Aggregate/Template_basin_aggregate_data_dictionary_WaDE_Oct2020.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12f0f43a203bbb30/Documents/MappingStatesDataToWaDE2.0/DataDict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\DataDict\Aggregate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA1060FE-F155-4C30-833D-D115E552CF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7ADD0E-70AF-4C77-8949-CF058C553A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="10" r:id="rId1"/>
     <sheet name="Organizations" sheetId="6" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="WaterSources" sheetId="4" r:id="rId4"/>
-    <sheet name="Methods" sheetId="7" r:id="rId5"/>
+    <sheet name="Methods" sheetId="7" r:id="rId4"/>
+    <sheet name="WaterSources" sheetId="4" r:id="rId5"/>
     <sheet name="ReportingAreas" sheetId="5" r:id="rId6"/>
     <sheet name="Amounts_time_series" sheetId="2" r:id="rId7"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
   <si>
     <t>OrganizationName</t>
   </si>
@@ -110,9 +110,6 @@
     <t>EPSGCodeCV</t>
   </si>
   <si>
-    <t>EPSG Code for projection, with a preference for WGS_1984, EPSG of 4326</t>
-  </si>
-  <si>
     <t>PrimaryUseCategoryCV</t>
   </si>
   <si>
@@ -176,12 +173,6 @@
     <t>TimeframeEnd</t>
   </si>
   <si>
-    <t>LivestockServed</t>
-  </si>
-  <si>
-    <t>LivestockSpeciesCV</t>
-  </si>
-  <si>
     <t xml:space="preserve">AggregationInterval </t>
   </si>
   <si>
@@ -206,15 +197,6 @@
     <t>Water quality indicator(s) for the site-specific variable amount such as fresh, saline, mixed quality, etc.  Full list available here: http://vocabulary.westernstateswater.org/waterqualityindicator/.  Append if needed.</t>
   </si>
   <si>
-    <t>the water source name as in the data provider record</t>
-  </si>
-  <si>
-    <t>Source id as used in the data provider</t>
-  </si>
-  <si>
-    <t>The source type(s) of the site-specific variable amount (e.g., surface water, groundwater, mixed sources, reuse, etc).  Full list available here: http://vocabulary.westernstateswater.org/watersourcetype/.  Append here if needed.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -239,9 +221,6 @@
     <t>Indicator of how the actual amount was determined (i.e. calculated, measured, estimated, or reported).  Full list available here: http://vocabulary.westernstateswater.org/methodtype/.  Append if needed.</t>
   </si>
   <si>
-    <t>AssociatedNativeAllocationIDs</t>
-  </si>
-  <si>
     <t>DataPublicationDOI</t>
   </si>
   <si>
@@ -293,12 +272,6 @@
     <t>A hyperlink back to the organization's website. Include https:// header and trailing forward slash</t>
   </si>
   <si>
-    <t>State name where the organization belongs to</t>
-  </si>
-  <si>
-    <t>a unique digital object identifier into the original dataset</t>
-  </si>
-  <si>
     <t>Number of acres irrigated by the aggregated variable amount, if irrigation or agriculture is a specified beneficial use</t>
   </si>
   <si>
@@ -311,9 +284,6 @@
     <t>Start date for the allocation each year in MM/DD/YYYY</t>
   </si>
   <si>
-    <t>UnitCV</t>
-  </si>
-  <si>
     <t>Adel Abdallah, WaDE Program Manager</t>
   </si>
   <si>
@@ -336,9 +306,6 @@
   </si>
   <si>
     <t>stores references to the metadata tables and a record of data that often changes over time</t>
-  </si>
-  <si>
-    <t>The number of livestock the water rights is watering</t>
   </si>
   <si>
     <t>PowerTypeCV</t>
@@ -398,18 +365,12 @@
     <t>The reporting unit product version number. Could be a release of the HUC or County layer, or internal to the data provider.</t>
   </si>
   <si>
-    <t>The reporting unit name. All HUCs and Counties have a name as part of a WaDE controlled vocabulary. If the reporting unit is a custom geospatial area, the data provider should include names wherever possible.</t>
-  </si>
-  <si>
     <t>The type of reporting unit - county, HUC, or a custom delineation.</t>
   </si>
   <si>
     <t>Date that the last reporting unit product version was released.</t>
   </si>
   <si>
-    <t>Abbreviated state identifier.</t>
-  </si>
-  <si>
     <t>This workbook provides a template and data dictionary for time series aggregate basin wide use and budget data accoroding to the Water Data Exchange (WaDE)  2.0 schema. For more info, visit https://github.com/WSWCWaterDataExchange/WaDE2.0</t>
   </si>
   <si>
@@ -431,12 +392,6 @@
     <t>The method used to irrigated the associated unit.</t>
   </si>
   <si>
-    <t>The type of livestock.  E.g., cattle, sheep, chicken</t>
-  </si>
-  <si>
-    <t>Cattle</t>
-  </si>
-  <si>
     <t>Irrigation</t>
   </si>
   <si>
@@ -476,9 +431,6 @@
     <t>e.g., Water Administration for the State of Colorado</t>
   </si>
   <si>
-    <t>e.g., 1200</t>
-  </si>
-  <si>
     <t>e.g., 01/01/2020</t>
   </si>
   <si>
@@ -509,9 +461,6 @@
     <t>e.g., 12/5/2019</t>
   </si>
   <si>
-    <t>e.g., EPSG:4326</t>
-  </si>
-  <si>
     <t>e.g., CO</t>
   </si>
   <si>
@@ -540,6 +489,96 @@
   </si>
   <si>
     <t>e.g., Good</t>
+  </si>
+  <si>
+    <t>AmountUnitCV</t>
+  </si>
+  <si>
+    <t>MaximumAmountUnitCV</t>
+  </si>
+  <si>
+    <t>The allocation unit of measurment used for maxium limits (e.g., CFS, AF, etc).</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>The high level description of the water source type (e.g., surface water, groundwater, mixed, reuse, etc.)</t>
+  </si>
+  <si>
+    <t>The GIS objects / shape written in Well-Known Text (WKT) format.</t>
+  </si>
+  <si>
+    <t>The water source native ID used by the data provider.</t>
+  </si>
+  <si>
+    <t>The water source name as recognized by the data provider.</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the data provider to distinguish the reporting area in the source data set.</t>
+  </si>
+  <si>
+    <t>e.g., AMA015</t>
+  </si>
+  <si>
+    <t>Recognized name of the data reporting area by the data provider.</t>
+  </si>
+  <si>
+    <t>Two digit state abbreviation where the data site is.</t>
+  </si>
+  <si>
+    <t>EPSG Code for projection used for WaDE (e.g.,  EPSG:4326).</t>
+  </si>
+  <si>
+    <t>e.g., 4326</t>
+  </si>
+  <si>
+    <t>AllocationCropDutyAmount</t>
+  </si>
+  <si>
+    <t>BeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>DataPublicationDate</t>
+  </si>
+  <si>
+    <t>InterbasinTransferFromID</t>
+  </si>
+  <si>
+    <t>InterbasinTransferToID</t>
+  </si>
+  <si>
+    <t>Crop Duty amount. The number of acres of land that is irrigated for the complete growth of a crop by supplying 1-meter cubes per second of water continuously throughout the crop.</t>
+  </si>
+  <si>
+    <t>The state recognized stated purpose for the water allocation (e.g., irrigation, power, etc) (if multiple, provide as a comma separated list).</t>
+  </si>
+  <si>
+    <t>Date that this data was published by the data provider to the public.</t>
+  </si>
+  <si>
+    <t>A unique digital object identifier into the original dataset.</t>
+  </si>
+  <si>
+    <t>Identifier name / ID of the basin if the water supply type for the reporting unit is designated as an interbasin transfer and from another basin.</t>
+  </si>
+  <si>
+    <t>Identifier name / ID of the basin if the water supply type for the reporting unit is designated as an interbasin transfer and used in another basin.</t>
+  </si>
+  <si>
+    <t>AMA01</t>
+  </si>
+  <si>
+    <t>AMA05</t>
+  </si>
+  <si>
+    <t>e.g., 1535</t>
+  </si>
+  <si>
+    <t>Two digit state abbreviation where the organization is.</t>
+  </si>
+  <si>
+    <t>e.g., GNIS80002</t>
   </si>
 </sst>
 </file>
@@ -639,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -751,40 +790,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -818,19 +827,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -858,6 +854,90 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -868,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -937,11 +1017,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -961,123 +1039,115 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1464,55 +1534,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2403CCCD-12BC-4468-8E1E-FDDA82B7D922}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1521,75 +1591,75 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1609,108 +1679,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E092E-37FC-44C0-9387-B111C2DA4E7B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="11" customWidth="1"/>
     <col min="6" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:8" s="43" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="74" t="s">
+    </row>
+    <row r="2" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="61" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="5"/>
     </row>
   </sheetData>
@@ -1721,111 +1791,122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E08C38F-342B-49D5-9FE3-F27BCCD90258}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:9" s="43" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="58" t="s">
+    </row>
+    <row r="2" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="69">
         <v>10</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="I3" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="81">
-        <v>10</v>
-      </c>
-      <c r="H3" s="83" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="10"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1833,197 +1914,105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85242FD5-FD52-4C86-8C01-7E742284680E}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72A969-622D-4936-987A-049101D32A6E}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:8" s="43" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="33" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="55" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="81" t="s">
+      <c r="F2" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" s="50" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2038,118 +2027,224 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85242FD5-FD52-4C86-8C01-7E742284680E}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="47" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{CC7758D4-2DBF-40FC-9C2B-AE28542E7445}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57FC1D5-7413-4D4B-8F4B-A0DAC5C798A1}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11" style="28" customWidth="1"/>
-    <col min="5" max="5" width="23" style="39" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="42" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="26" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="17.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18" style="27" customWidth="1"/>
+    <col min="5" max="5" width="11" style="28" customWidth="1"/>
+    <col min="6" max="6" width="23" style="37" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="34" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="55" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84">
+        <v>3703994</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="36" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="62" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
-        <v>3703994</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{D21E0E42-BF9D-49ED-A795-6FBC11E83A27}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{D21E0E42-BF9D-49ED-A795-6FBC11E83A27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2158,216 +2253,226 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF95F0A-A6D8-4C9F-9AAD-CE9D64114AA9}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="71" customWidth="1"/>
     <col min="4" max="4" width="31" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="13" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.21875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="45" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:20" s="43" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="84" t="s">
+      <c r="R1" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="T1" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="24" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="65" t="s">
+      <c r="E2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="N2" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="25" t="s">
+      <c r="S2" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="55" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="49">
+        <v>5</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="49">
+        <v>44385</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" s="76">
+        <v>2012</v>
+      </c>
+      <c r="R3" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="62" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="53">
-        <v>20</v>
-      </c>
-      <c r="N3" s="53" t="s">
+      <c r="T3" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="R3" s="53">
-        <v>2012</v>
-      </c>
-      <c r="S3" s="68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -2380,19 +2485,63 @@
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I12" s="25"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="K12" s="25"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{2FF128AC-723F-47D8-8477-85AA89DAFA5C}"/>
-  </hyperlinks>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:T12">
+    <sortCondition ref="B1:T1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>